--- a/appinv/out/09102989061-4.xlsx
+++ b/appinv/out/09102989061-4.xlsx
@@ -278,14 +278,11 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
@@ -298,9 +295,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -653,1836 +647,1836 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>42918</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s"/>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s"/>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>110</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s"/>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7">
-        <v>-2.7e+01</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="5">
+        <v>-27</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>42919</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s"/>
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s"/>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>65</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>42921</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s"/>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s"/>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>20</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>42921</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s"/>
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s"/>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>130</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>42921</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s"/>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s"/>
-      <c r="B21" s="6">
-        <v>1</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>28</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>42922</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s"/>
-      <c r="B24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s"/>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>55</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>7</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>42926</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s"/>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s"/>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>70</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s"/>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>2</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="7">
-        <v>-1.1e+01</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="5">
+        <v>-11</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s"/>
-      <c r="B31" s="6">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="5">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>30</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s"/>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>4</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>65</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>8</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>42928</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s"/>
-      <c r="B35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s"/>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>110</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s"/>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>2</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="7">
-        <v>-2.7e+01</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="E37" s="5">
+        <v>-27</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s"/>
-      <c r="B38" s="6">
-        <v>3</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="5">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="7">
-        <v>-6e+00</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="E38" s="5">
+        <v>-6</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>9</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>42928</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <v>240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s"/>
-      <c r="B41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s"/>
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="5">
+        <v>1</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>270</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s"/>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>2</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="7">
-        <v>-3e+01</v>
-      </c>
-      <c r="F43" s="6" t="s">
+      <c r="E43" s="5">
+        <v>-30</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>10</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>42928</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s"/>
-      <c r="B46" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s"/>
-      <c r="B47" s="6">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>25</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>11</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>42935</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s"/>
-      <c r="B50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s"/>
-      <c r="B51" s="6">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>29</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I52" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>12</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>42935</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s"/>
-      <c r="B54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s"/>
-      <c r="B55" s="6">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="B55" s="5">
+        <v>1</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>110</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s"/>
-      <c r="B56" s="6">
+      <c r="B56" s="5">
         <v>2</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="7">
-        <v>-2.7e+01</v>
-      </c>
-      <c r="F56" s="6" t="s">
+      <c r="E56" s="5">
+        <v>-27</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="I57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>13</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>42937</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>54</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s"/>
-      <c r="B59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s"/>
-      <c r="B60" s="6">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="B60" s="5">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>29</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s"/>
-      <c r="B61" s="6">
+      <c r="B61" s="5">
         <v>2</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>25</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>14</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>42939</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>198</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s"/>
-      <c r="B64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s"/>
-      <c r="B65" s="6">
-        <v>1</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>89</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s"/>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>2</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="C66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="5">
         <v>25</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s"/>
-      <c r="B67" s="6">
-        <v>3</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="B67" s="5">
+        <v>3</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="5">
         <v>32</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s"/>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>4</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="C68" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="5">
         <v>55</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s"/>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>5</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="C69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E69" s="7">
-        <v>-3e+00</v>
-      </c>
-      <c r="F69" s="6" t="s">
+      <c r="E69" s="5">
+        <v>-3</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>15</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>42941</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s"/>
-      <c r="B72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s"/>
-      <c r="B73" s="6">
-        <v>1</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="B73" s="5">
+        <v>1</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="5">
         <v>25</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="I74" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>16</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>42927</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J75" s="5">
+      <c r="J75" s="4">
         <v>679</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s"/>
-      <c r="B76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s"/>
-      <c r="B77" s="6">
-        <v>1</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="5">
         <v>679</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="5" t="s">
         <v>69</v>
       </c>
     </row>

--- a/appinv/out/09102989061-4.xlsx
+++ b/appinv/out/09102989061-4.xlsx
@@ -679,7 +679,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -730,7 +730,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s"/>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s"/>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -797,7 +797,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -848,7 +848,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s"/>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -897,7 +897,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -948,7 +948,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s"/>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -997,7 +997,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1048,7 +1048,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s"/>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1148,7 +1148,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s"/>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -1197,7 +1197,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1248,7 +1248,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s"/>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1348,7 +1348,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s"/>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1366,7 +1366,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s"/>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1384,7 +1384,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s"/>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1402,7 +1402,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s"/>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1451,7 +1451,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1502,7 +1502,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s"/>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1520,7 +1520,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s"/>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -1538,7 +1538,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s"/>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1587,7 +1587,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1638,7 +1638,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s"/>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s"/>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1756,7 +1756,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="s"/>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1856,7 +1856,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s"/>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1956,7 +1956,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s"/>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -1974,7 +1974,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s"/>
-      <c r="B56" s="5">
+      <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -2023,7 +2023,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2074,7 +2074,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s"/>
-      <c r="B60" s="5">
+      <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -2092,7 +2092,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s"/>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -2141,7 +2141,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2192,7 +2192,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s"/>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -2210,7 +2210,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s"/>
-      <c r="B66" s="5">
+      <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -2228,7 +2228,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s"/>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2246,7 +2246,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s"/>
-      <c r="B68" s="5">
+      <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -2264,7 +2264,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s"/>
-      <c r="B69" s="5">
+      <c r="B69">
         <v>5</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71">
         <v>15</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2364,7 +2364,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s"/>
-      <c r="B73" s="5">
+      <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -2413,7 +2413,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75">
         <v>16</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2464,7 +2464,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s"/>
-      <c r="B77" s="5">
+      <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">

--- a/appinv/out/09102989061-4.xlsx
+++ b/appinv/out/09102989061-4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>項次</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>總金額</t>
+  </si>
+  <si>
+    <t>明細清單</t>
   </si>
   <si>
     <t>M</t>
@@ -233,7 +236,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_($* #,##0.0_);_($* (#,##0.0);_($* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0 ;[red]-#,##0.0 "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -278,7 +281,7 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -295,6 +298,9 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -626,7 +632,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -644,6 +650,7 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -677,34 +684,37 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3">
         <v>42918</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4">
         <v>83</v>
@@ -722,46 +732,46 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s"/>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6">
         <v>110</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s"/>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
-        <v>-27</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-2.7e+01</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -795,34 +805,37 @@
       <c r="J6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3">
         <v>42919</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" s="4">
         <v>65</v>
@@ -840,28 +853,28 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s"/>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
         <v>65</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -895,34 +908,37 @@
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3">
         <v>42921</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" s="4">
         <v>20</v>
@@ -940,28 +956,28 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s"/>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6">
         <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -995,34 +1011,37 @@
       <c r="J14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3">
         <v>42921</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J15" s="4">
         <v>130</v>
@@ -1040,28 +1059,28 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s"/>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6">
         <v>130</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -1095,34 +1114,37 @@
       <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3">
         <v>42921</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="4">
         <v>28</v>
@@ -1140,28 +1162,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s"/>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="5">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6">
         <v>28</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1195,34 +1217,37 @@
       <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3">
         <v>42922</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" s="4">
         <v>55</v>
@@ -1240,28 +1265,28 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s"/>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="5">
+        <v>35</v>
+      </c>
+      <c r="E25" s="6">
         <v>55</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -1295,34 +1320,37 @@
       <c r="J26" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K26" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3">
         <v>42926</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J27" s="4">
         <v>154</v>
@@ -1340,82 +1368,82 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s"/>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="5">
+        <v>39</v>
+      </c>
+      <c r="E29" s="6">
         <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s"/>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="5">
-        <v>-11</v>
+        <v>39</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-1.1e+01</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s"/>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="5">
+        <v>39</v>
+      </c>
+      <c r="E31" s="6">
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s"/>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="5">
+        <v>39</v>
+      </c>
+      <c r="E32" s="6">
         <v>65</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -1449,34 +1477,37 @@
       <c r="J33" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K33" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="3">
         <v>42928</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J34" s="4">
         <v>77</v>
@@ -1494,64 +1525,64 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s"/>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="5">
+        <v>45</v>
+      </c>
+      <c r="E36" s="6">
         <v>110</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s"/>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="5">
-        <v>-27</v>
+        <v>45</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-2.7e+01</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s"/>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="5">
-        <v>-6</v>
+        <v>45</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-6e+00</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -1585,34 +1616,37 @@
       <c r="J39" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="3">
         <v>42928</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J40" s="4">
         <v>240</v>
@@ -1630,46 +1664,46 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s"/>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="5">
+        <v>47</v>
+      </c>
+      <c r="E42" s="6">
         <v>270</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s"/>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="5">
-        <v>-30</v>
+        <v>47</v>
+      </c>
+      <c r="E43" s="6">
+        <v>-3e+01</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
@@ -1703,34 +1737,37 @@
       <c r="J44" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K44" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E45" s="3">
         <v>42928</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J45" s="4">
         <v>25</v>
@@ -1748,28 +1785,28 @@
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s"/>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="5">
+        <v>50</v>
+      </c>
+      <c r="E47" s="6">
         <v>25</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -1803,34 +1840,37 @@
       <c r="J48" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K48" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E49" s="3">
         <v>42935</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J49" s="4">
         <v>29</v>
@@ -1848,28 +1888,28 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s"/>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="5">
+        <v>52</v>
+      </c>
+      <c r="E51" s="6">
         <v>29</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
@@ -1903,34 +1943,37 @@
       <c r="J52" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K52" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E53" s="3">
         <v>42935</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J53" s="4">
         <v>83</v>
@@ -1948,46 +1991,46 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s"/>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="5">
+        <v>54</v>
+      </c>
+      <c r="E55" s="6">
         <v>110</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s"/>
-      <c r="B56" s="5">
+      <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="5">
-        <v>-27</v>
+        <v>54</v>
+      </c>
+      <c r="E56" s="6">
+        <v>-2.7e+01</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
@@ -2021,34 +2064,37 @@
       <c r="J57" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K57" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E58" s="3">
         <v>42937</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J58" s="4">
         <v>54</v>
@@ -2066,46 +2112,46 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s"/>
-      <c r="B60" s="5">
+      <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="5">
+        <v>55</v>
+      </c>
+      <c r="E60" s="6">
         <v>29</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s"/>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="5">
+        <v>55</v>
+      </c>
+      <c r="E61" s="6">
         <v>25</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
@@ -2139,34 +2185,37 @@
       <c r="J62" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K62" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E63" s="3">
         <v>42939</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J63" s="4">
         <v>198</v>
@@ -2184,100 +2233,100 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s"/>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="5">
+        <v>58</v>
+      </c>
+      <c r="E65" s="6">
         <v>89</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s"/>
-      <c r="B66" s="5">
+      <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="5">
+        <v>58</v>
+      </c>
+      <c r="E66" s="6">
         <v>25</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s"/>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="5">
+        <v>58</v>
+      </c>
+      <c r="E67" s="6">
         <v>32</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s"/>
-      <c r="B68" s="5">
+      <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" s="5">
+        <v>58</v>
+      </c>
+      <c r="E68" s="6">
         <v>55</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s"/>
-      <c r="B69" s="5">
+      <c r="B69">
         <v>5</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="5">
-        <v>-3</v>
+        <v>58</v>
+      </c>
+      <c r="E69" s="6">
+        <v>-3e+00</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
@@ -2311,34 +2360,37 @@
       <c r="J70" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="2">
+      <c r="A71">
         <v>15</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E71" s="3">
         <v>42941</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J71" s="4">
         <v>25</v>
@@ -2356,28 +2408,28 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s"/>
-      <c r="B73" s="5">
+      <c r="B73">
         <v>1</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" s="5">
+        <v>62</v>
+      </c>
+      <c r="E73" s="6">
         <v>25</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74">
@@ -2411,34 +2463,37 @@
       <c r="J74" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K74" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="2">
+      <c r="A75">
         <v>16</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E75" s="3">
         <v>42927</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J75" s="4">
         <v>679</v>
@@ -2456,28 +2511,28 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s"/>
-      <c r="B77" s="5">
+      <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E77" s="5">
+        <v>65</v>
+      </c>
+      <c r="E77" s="6">
         <v>679</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/appinv/out/09102989061-4.xlsx
+++ b/appinv/out/09102989061-4.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shyang/Dropbox/Golang/vendor/src/github.com/shyang107/go-twinvoices/appinv/out/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22180" windowHeight="15780" tabRatio="204"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="消費發票" sheetId="1" r:id="rId1"/>
+    <sheet name="消費發票" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>項次</t>
   </si>
@@ -245,26 +234,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0.0\ ;[Red]\-#,##0.0\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.0 ;[red]-#,##0.0 "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="00000000"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -279,46 +269,41 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style=""/>
+      <right style=""/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="14">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -643,28 +628,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col min="1" max="2" width="4.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,7 +688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -731,7 +720,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3">
+      <c r="A3" s="1" t="s"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +738,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4">
+      <c r="A4" s="1" t="s"/>
       <c r="B4">
         <v>1</v>
       </c>
@@ -765,7 +756,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5">
+      <c r="A5" s="1" t="s"/>
       <c r="B5">
         <v>2</v>
       </c>
@@ -776,13 +768,13 @@
         <v>13</v>
       </c>
       <c r="E5" s="6">
-        <v>-27</v>
+        <v>-2.7e+01</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7">
         <v>2</v>
       </c>
@@ -849,7 +841,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8">
+      <c r="A8" s="1" t="s"/>
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,7 +859,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9">
+      <c r="A9" s="1" t="s"/>
       <c r="B9">
         <v>1</v>
       </c>
@@ -883,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>3</v>
       </c>
@@ -950,7 +944,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12">
+      <c r="A12" s="1" t="s"/>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +962,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13">
+      <c r="A13" s="1" t="s"/>
       <c r="B13">
         <v>1</v>
       </c>
@@ -984,7 +980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1051,7 +1047,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16">
+      <c r="A16" s="1" t="s"/>
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1065,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17">
+      <c r="A17" s="1" t="s"/>
       <c r="B17">
         <v>1</v>
       </c>
@@ -1085,7 +1083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1152,7 +1150,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20">
+      <c r="A20" s="1" t="s"/>
       <c r="B20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1168,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21">
+      <c r="A21" s="1" t="s"/>
       <c r="B21">
         <v>1</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1253,7 +1253,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24">
+      <c r="A24" s="1" t="s"/>
       <c r="B24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1271,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25">
+      <c r="A25" s="1" t="s"/>
       <c r="B25">
         <v>1</v>
       </c>
@@ -1287,7 +1289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1354,7 +1356,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28">
+      <c r="A28" s="1" t="s"/>
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1371,7 +1374,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29">
+      <c r="A29" s="1" t="s"/>
       <c r="B29">
         <v>1</v>
       </c>
@@ -1388,7 +1392,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30">
+      <c r="A30" s="1" t="s"/>
       <c r="B30">
         <v>2</v>
       </c>
@@ -1399,13 +1404,14 @@
         <v>39</v>
       </c>
       <c r="E30" s="6">
-        <v>-11</v>
+        <v>-1.1e+01</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31">
+      <c r="A31" s="1" t="s"/>
       <c r="B31">
         <v>3</v>
       </c>
@@ -1422,7 +1428,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32">
+      <c r="A32" s="1" t="s"/>
       <c r="B32">
         <v>4</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34">
         <v>8</v>
       </c>
@@ -1506,7 +1513,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35">
+      <c r="A35" s="1" t="s"/>
       <c r="B35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1531,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36">
+      <c r="A36" s="1" t="s"/>
       <c r="B36">
         <v>1</v>
       </c>
@@ -1540,7 +1549,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37">
+      <c r="A37" s="1" t="s"/>
       <c r="B37">
         <v>2</v>
       </c>
@@ -1551,13 +1561,14 @@
         <v>45</v>
       </c>
       <c r="E37" s="6">
-        <v>-27</v>
+        <v>-2.7e+01</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38">
+      <c r="A38" s="1" t="s"/>
       <c r="B38">
         <v>3</v>
       </c>
@@ -1568,13 +1579,13 @@
         <v>45</v>
       </c>
       <c r="E38" s="6">
-        <v>-6</v>
+        <v>-6e+00</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1641,7 +1652,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41">
+      <c r="A41" s="1" t="s"/>
       <c r="B41" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1670,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42">
+      <c r="A42" s="1" t="s"/>
       <c r="B42">
         <v>1</v>
       </c>
@@ -1675,7 +1688,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43">
+      <c r="A43" s="1" t="s"/>
       <c r="B43">
         <v>2</v>
       </c>
@@ -1686,13 +1700,13 @@
         <v>47</v>
       </c>
       <c r="E43" s="6">
-        <v>-30</v>
+        <v>-3e+01</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45">
         <v>10</v>
       </c>
@@ -1759,7 +1773,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46">
+      <c r="A46" s="1" t="s"/>
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1791,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47">
+      <c r="A47" s="1" t="s"/>
       <c r="B47">
         <v>1</v>
       </c>
@@ -1793,7 +1809,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49">
         <v>11</v>
       </c>
@@ -1860,7 +1876,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50">
+      <c r="A50" s="1" t="s"/>
       <c r="B50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1877,7 +1894,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51">
+      <c r="A51" s="1" t="s"/>
       <c r="B51">
         <v>1</v>
       </c>
@@ -1894,7 +1912,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53">
         <v>12</v>
       </c>
@@ -1961,7 +1979,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54">
+      <c r="A54" s="1" t="s"/>
       <c r="B54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +1997,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55">
+      <c r="A55" s="1" t="s"/>
       <c r="B55">
         <v>1</v>
       </c>
@@ -1995,7 +2015,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56">
+      <c r="A56" s="1" t="s"/>
       <c r="B56">
         <v>2</v>
       </c>
@@ -2006,13 +2027,13 @@
         <v>54</v>
       </c>
       <c r="E56" s="6">
-        <v>-27</v>
+        <v>-2.7e+01</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58">
         <v>13</v>
       </c>
@@ -2079,7 +2100,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59">
+      <c r="A59" s="1" t="s"/>
       <c r="B59" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2118,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60">
+      <c r="A60" s="1" t="s"/>
       <c r="B60">
         <v>1</v>
       </c>
@@ -2113,7 +2136,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61">
+      <c r="A61" s="1" t="s"/>
       <c r="B61">
         <v>2</v>
       </c>
@@ -2130,7 +2154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63">
         <v>14</v>
       </c>
@@ -2197,7 +2221,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64">
+      <c r="A64" s="1" t="s"/>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2239,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65">
+      <c r="A65" s="1" t="s"/>
       <c r="B65">
         <v>1</v>
       </c>
@@ -2231,7 +2257,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66">
+      <c r="A66" s="1" t="s"/>
       <c r="B66">
         <v>2</v>
       </c>
@@ -2248,7 +2275,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67">
+      <c r="A67" s="1" t="s"/>
       <c r="B67">
         <v>3</v>
       </c>
@@ -2265,7 +2293,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68">
+      <c r="A68" s="1" t="s"/>
       <c r="B68">
         <v>4</v>
       </c>
@@ -2282,7 +2311,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69">
+      <c r="A69" s="1" t="s"/>
       <c r="B69">
         <v>5</v>
       </c>
@@ -2293,13 +2323,13 @@
         <v>58</v>
       </c>
       <c r="E69" s="6">
-        <v>-3</v>
+        <v>-3e+00</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -2334,7 +2364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71">
         <v>15</v>
       </c>
@@ -2366,7 +2396,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72">
+      <c r="A72" s="1" t="s"/>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
@@ -2383,7 +2414,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73">
+      <c r="A73" s="1" t="s"/>
       <c r="B73">
         <v>1</v>
       </c>
@@ -2400,7 +2432,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75">
         <v>16</v>
       </c>
@@ -2467,7 +2499,8 @@
         <v>679</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76">
+      <c r="A76" s="1" t="s"/>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2517,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77">
+      <c r="A77" s="1" t="s"/>
       <c r="B77">
         <v>1</v>
       </c>
@@ -2502,10 +2536,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/appinv/out/09102989061-4.xlsx
+++ b/appinv/out/09102989061-4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>項次</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>總金額</t>
-  </si>
-  <si>
-    <t>明細清單</t>
   </si>
   <si>
     <t>M</t>
@@ -632,7 +629,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -650,7 +647,6 @@
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -684,37 +680,34 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="3">
         <v>42918</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="4">
         <v>83</v>
@@ -732,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -744,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6">
         <v>110</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -762,16 +755,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6">
         <v>-2.7e+01</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -804,9 +797,6 @@
       </c>
       <c r="J6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -814,28 +804,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3">
         <v>42919</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J7" s="4">
         <v>65</v>
@@ -853,10 +843,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -865,16 +855,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6">
         <v>65</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -908,37 +898,34 @@
       <c r="J10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3">
         <v>42921</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J11" s="4">
         <v>20</v>
@@ -956,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -968,16 +955,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6">
         <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -1010,9 +997,6 @@
       </c>
       <c r="J14" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1020,28 +1004,28 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3">
         <v>42921</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J15" s="4">
         <v>130</v>
@@ -1059,10 +1043,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -1071,16 +1055,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="6">
         <v>130</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -1113,9 +1097,6 @@
       </c>
       <c r="J18" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1123,28 +1104,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3">
         <v>42921</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J19" s="4">
         <v>28</v>
@@ -1162,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1174,16 +1155,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="6">
         <v>28</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -1216,9 +1197,6 @@
       </c>
       <c r="J22" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1226,28 +1204,28 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E23" s="3">
         <v>42922</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J23" s="4">
         <v>55</v>
@@ -1265,10 +1243,10 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1277,16 +1255,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="6">
         <v>55</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1319,9 +1297,6 @@
       </c>
       <c r="J26" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1329,28 +1304,28 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="3">
         <v>42926</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J27" s="4">
         <v>154</v>
@@ -1368,10 +1343,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -1380,16 +1355,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="6">
         <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -1398,16 +1373,16 @@
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="6">
         <v>-1.1e+01</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1416,16 +1391,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E31" s="6">
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
@@ -1434,16 +1409,16 @@
         <v>4</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="6">
         <v>65</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33">
@@ -1476,9 +1451,6 @@
       </c>
       <c r="J33" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1486,28 +1458,28 @@
         <v>8</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="3">
         <v>42928</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J34" s="4">
         <v>77</v>
@@ -1525,10 +1497,10 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="36">
@@ -1537,16 +1509,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E36" s="6">
         <v>110</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
@@ -1555,16 +1527,16 @@
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E37" s="6">
         <v>-2.7e+01</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1573,16 +1545,16 @@
         <v>3</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="6">
         <v>-6e+00</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
@@ -1615,9 +1587,6 @@
       </c>
       <c r="J39" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1625,28 +1594,28 @@
         <v>9</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="3">
         <v>42928</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J40" s="4">
         <v>240</v>
@@ -1664,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -1676,16 +1645,16 @@
         <v>1</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="6">
         <v>270</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1694,16 +1663,16 @@
         <v>2</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="6">
         <v>-3e+01</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1736,9 +1705,6 @@
       </c>
       <c r="J44" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -1746,28 +1712,28 @@
         <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E45" s="3">
         <v>42928</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J45" s="4">
         <v>25</v>
@@ -1785,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="47">
@@ -1797,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="6">
         <v>25</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1839,9 +1805,6 @@
       </c>
       <c r="J48" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -1849,28 +1812,28 @@
         <v>11</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="3">
         <v>42935</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J49" s="4">
         <v>29</v>
@@ -1888,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="51">
@@ -1900,16 +1863,16 @@
         <v>1</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" s="6">
         <v>29</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52">
@@ -1942,9 +1905,6 @@
       </c>
       <c r="J52" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1952,28 +1912,28 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="3">
         <v>42935</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J53" s="4">
         <v>83</v>
@@ -1991,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="55">
@@ -2003,16 +1963,16 @@
         <v>1</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" s="6">
         <v>110</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -2021,16 +1981,16 @@
         <v>2</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E56" s="6">
         <v>-2.7e+01</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -2063,9 +2023,6 @@
       </c>
       <c r="J57" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -2073,28 +2030,28 @@
         <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E58" s="3">
         <v>42937</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J58" s="4">
         <v>54</v>
@@ -2112,10 +2069,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="60">
@@ -2124,16 +2081,16 @@
         <v>1</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" s="6">
         <v>29</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
@@ -2142,16 +2099,16 @@
         <v>2</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E61" s="6">
         <v>25</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62">
@@ -2184,9 +2141,6 @@
       </c>
       <c r="J62" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -2194,28 +2148,28 @@
         <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" s="3">
         <v>42939</v>
       </c>
       <c r="F63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J63" s="4">
         <v>198</v>
@@ -2233,10 +2187,10 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="65">
@@ -2245,16 +2199,16 @@
         <v>1</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E65" s="6">
         <v>89</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
@@ -2263,16 +2217,16 @@
         <v>2</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E66" s="6">
         <v>25</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
@@ -2281,16 +2235,16 @@
         <v>3</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="6">
         <v>32</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -2299,16 +2253,16 @@
         <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E68" s="6">
         <v>55</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
@@ -2317,16 +2271,16 @@
         <v>5</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E69" s="6">
         <v>-3e+00</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70">
@@ -2359,9 +2313,6 @@
       </c>
       <c r="J70" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -2369,28 +2320,28 @@
         <v>15</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E71" s="3">
         <v>42941</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="J71" s="4">
         <v>25</v>
@@ -2408,10 +2359,10 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -2420,16 +2371,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E73" s="6">
         <v>25</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
@@ -2462,9 +2413,6 @@
       </c>
       <c r="J74" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2472,28 +2420,28 @@
         <v>16</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E75" s="3">
         <v>42927</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="J75" s="4">
         <v>679</v>
@@ -2511,10 +2459,10 @@
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -2523,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E77" s="6">
         <v>679</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/appinv/out/09102989061-4.xlsx
+++ b/appinv/out/09102989061-4.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>項次</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>【企鵝寶寶】ARC-956A變頻冷氣萬用遙控器</t>
+  </si>
+  <si>
+    <t>發票 1 至 16 累計金額：</t>
   </si>
 </sst>
 </file>
@@ -235,15 +238,23 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0 ;[red]-#,##0.0 "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="0"/>
       <charset val="0"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <b/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
@@ -263,8 +274,13 @@
         <fgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -277,8 +293,14 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -298,6 +320,15 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="3" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="1" applyNumberFormat="1" applyProtection="0" borderId="2" fillId="4" fontId="1" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -629,7 +660,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2483,7 +2514,22 @@
         <v>69</v>
       </c>
     </row>
+    <row r="78"/>
+    <row r="79">
+      <c r="A79" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="8" t="s"/>
+      <c r="C79" s="8" t="s"/>
+      <c r="D79" s="8" t="s"/>
+      <c r="E79" s="9">
+        <v>1945</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A79:D79"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
